--- a/VT_REG1_PRI_K03.xlsx
+++ b/VT_REG1_PRI_K03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B90D81-EDB6-4EB1-83B0-81F2487DE2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664B0F3-4CB4-443B-952B-FC40D1C5C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3387,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C782BC8-25C1-4965-8240-28B07E75BEE2}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3690,13 +3690,13 @@
         <v>GAS</v>
       </c>
       <c r="E11" s="26">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="27">
         <v>200</v>
       </c>
       <c r="G11" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>66</v>

--- a/VT_REG1_PRI_K03.xlsx
+++ b/VT_REG1_PRI_K03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664B0F3-4CB4-443B-952B-FC40D1C5C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10EC6EF-1666-4CD3-A003-AA3AC9C2AFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{61209443-B044-446D-B3E5-C181F69903A2}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{61209443-B044-446D-B3E5-C181F69903A2}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{2886DCC3-4394-4E64-8F25-B4DDA9FABCA2}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{2886DCC3-4394-4E64-8F25-B4DDA9FABCA2}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{CE1E3DF5-8AC4-4817-ABE6-D2FBB8FF4A54}">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{CE1E3DF5-8AC4-4817-ABE6-D2FBB8FF4A54}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{C946DF2F-A6D1-4C02-8E62-83C65B2B449B}">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{C946DF2F-A6D1-4C02-8E62-83C65B2B449B}">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{4BA55C0B-6C80-4E44-91FD-BA11452F08EE}">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{4BA55C0B-6C80-4E44-91FD-BA11452F08EE}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{A2C5BE18-51FA-40F2-BA8B-CFDCC949DCAF}">
+    <comment ref="G11" authorId="2" shapeId="0" xr:uid="{5A89DDAB-F8C2-4FEF-BBC0-7888C677F889}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="2" shapeId="0" xr:uid="{CCADDBA0-1578-40C4-9874-5615EAB41CBB}">
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{CCADDBA0-1578-40C4-9874-5615EAB41CBB}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{A8467846-DB22-4BAE-9AFE-436070B97426}">
+    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{A8467846-DB22-4BAE-9AFE-436070B97426}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="2" shapeId="0" xr:uid="{AC6AEBBF-DD89-4029-ACD3-BD5ED88538D7}">
+    <comment ref="Q11" authorId="2" shapeId="0" xr:uid="{AC6AEBBF-DD89-4029-ACD3-BD5ED88538D7}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="2" shapeId="0" xr:uid="{023CE23E-B593-4D00-AB9E-A621E942235B}">
+    <comment ref="I12" authorId="2" shapeId="0" xr:uid="{023CE23E-B593-4D00-AB9E-A621E942235B}">
       <text>
         <r>
           <rPr>
@@ -829,7 +829,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{DCBB0356-71C0-4529-8934-A153D251F03A}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{DCBB0356-71C0-4529-8934-A153D251F03A}">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{42285F8C-794C-4A4F-BBC0-25588B36E7B8}">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{42285F8C-794C-4A4F-BBC0-25588B36E7B8}">
       <text>
         <r>
           <rPr>
@@ -969,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{7271F91E-F027-4D55-B9BF-F1938908A06B}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{7271F91E-F027-4D55-B9BF-F1938908A06B}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{350AC2B2-4744-4DBA-B49A-03DE8FD78469}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{350AC2B2-4744-4DBA-B49A-03DE8FD78469}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{3F0A12C3-06FC-4B06-882E-769553C5CCD7}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{3F0A12C3-06FC-4B06-882E-769553C5CCD7}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{58A71A52-230F-4A0A-BC3F-93342B6FCE11}">
+    <comment ref="J8" authorId="2" shapeId="0" xr:uid="{58A71A52-230F-4A0A-BC3F-93342B6FCE11}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{7DC511BC-AA58-47C8-AA0C-814182C81623}">
+    <comment ref="R8" authorId="2" shapeId="0" xr:uid="{7DC511BC-AA58-47C8-AA0C-814182C81623}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{2A35C480-7D95-4762-AE49-CB32F1D0E96F}">
+    <comment ref="S8" authorId="1" shapeId="0" xr:uid="{2A35C480-7D95-4762-AE49-CB32F1D0E96F}">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{DAAA8A0B-F0D8-4FBE-8ACA-162FBFE326E3}">
+    <comment ref="T8" authorId="2" shapeId="0" xr:uid="{DAAA8A0B-F0D8-4FBE-8ACA-162FBFE326E3}">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{1BE0B7DA-754F-446F-AF85-3FB2BA370D66}">
+    <comment ref="L9" authorId="2" shapeId="0" xr:uid="{1BE0B7DA-754F-446F-AF85-3FB2BA370D66}">
       <text>
         <r>
           <rPr>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Sector Name</t>
   </si>
@@ -1708,131 +1708,133 @@
     <t>COST</t>
   </si>
   <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>Tcap</t>
+  </si>
+  <si>
+    <t>Tslvl</t>
+  </si>
+  <si>
+    <t>PrimaryCG</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>*Technology Name</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Output Commodity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Annual Production Bound</t>
+  </si>
+  <si>
+    <t>*Process Set Membership</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>TimeSlice level of Process Activity</t>
+  </si>
+  <si>
+    <t>Primary Commodity Group</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>*Units</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MINWINOFF</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>User inputs</t>
+  </si>
+  <si>
+    <t>Linked to the Energy Balance</t>
+  </si>
+  <si>
+    <t>*IMP</t>
+  </si>
+  <si>
+    <t>*EXP</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>*Used to be 15000</t>
+  </si>
+  <si>
+    <t>*ACT_BND</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>MEuro22</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>TechDesc</t>
-  </si>
-  <si>
-    <t>Tact</t>
-  </si>
-  <si>
-    <t>Tcap</t>
-  </si>
-  <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>*Technology Name</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Output Commodity</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Annual Production Bound</t>
-  </si>
-  <si>
-    <t>*Process Set Membership</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>TimeSlice level of Process Activity</t>
-  </si>
-  <si>
-    <t>Primary Commodity Group</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>*Units</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>MINWINOFF</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PJa</t>
-  </si>
-  <si>
-    <t>User inputs</t>
-  </si>
-  <si>
-    <t>Linked to the Energy Balance</t>
-  </si>
-  <si>
-    <t>CUM</t>
-  </si>
-  <si>
-    <t>Reserves Cumulative Value</t>
-  </si>
-  <si>
-    <t>*IMP</t>
-  </si>
-  <si>
-    <t>*EXP</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2020</t>
-    </r>
-  </si>
-  <si>
-    <t>*Used to be 15000</t>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>Cset</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1842,7 +1844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1927,20 +1929,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2046,7 +2034,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -2088,16 +2076,12 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2107,6 +2091,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20 % - Farve5" xfId="3" builtinId="46"/>
@@ -2134,13 +2129,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9465</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2269,16 +2264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>2325972</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2293,8 +2288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5823585" y="3878580"/>
-          <a:ext cx="4526247" cy="1722120"/>
+          <a:off x="8772525" y="3878580"/>
+          <a:ext cx="4526247" cy="1798320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2442,6 +2437,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> is also set to the same. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Changes seem to be: The price set in the MINGAS?</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -2809,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,20 +2832,20 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5546875" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.5546875" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2852,9 +2862,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="str">
@@ -2870,20 +2881,21 @@
         <v>PJ</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="3" t="str">
         <f>[1]EB1!P2</f>
@@ -2897,36 +2909,36 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
@@ -2939,36 +2951,36 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -2980,29 +2992,29 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:K7" si="0">C4</f>
+      <c r="J5" s="10"/>
+      <c r="K5" s="5" t="str">
+        <f t="shared" ref="K5:L7" si="0">C4</f>
         <v>WINON</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Onshore wind</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="M5" s="5" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="3" t="str">
         <f>[1]EB1!R2</f>
@@ -3016,86 +3028,86 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" t="str">
+      <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="10"/>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>WINOFF</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
         <v>Offshore wind</v>
       </c>
-      <c r="L6" s="5" t="str">
-        <f t="shared" ref="L6:L7" si="1">$E$2</f>
+      <c r="M6" s="5" t="str">
+        <f t="shared" ref="M6:M7" si="1">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="5" t="str">
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SOL</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="L7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Solar energy</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="M7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="M8" s="5"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>30</v>
@@ -3107,90 +3119,96 @@
         <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="O12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="P12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3199,14 +3217,17 @@
         <v>/PJ</v>
       </c>
       <c r="F13" s="17" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2</f>
+        <v>/PJ</v>
+      </c>
+      <c r="G13" s="17" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="18"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -3214,167 +3235,177 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="str">
-        <f>J14</f>
+        <f>K14</f>
         <v>MINWINON</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5" t="str">
-        <f>J5</f>
+        <f>K5</f>
         <v>WINON</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="str">
-        <f>$H$14&amp;C4</f>
+      <c r="E14" s="30">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="str">
+        <f>$I$14&amp;C4</f>
         <v>MINWINON</v>
       </c>
-      <c r="K14" s="21" t="str">
+      <c r="L14" s="20" t="str">
         <f>"Domestic Supply of "&amp;D4</f>
         <v>Domestic Supply of Onshore wind</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="M14" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="N14" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="str">
-        <f>J15</f>
+        <f>K15</f>
         <v>MINWINOFF</v>
       </c>
       <c r="D15" t="str">
-        <f>J6</f>
+        <f>K6</f>
         <v>WINOFF</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="31">
+        <v>2021</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="10"/>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="J15" s="10"/>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="str">
         <f>"Domestic Supply of "&amp;D5</f>
         <v>Domestic Supply of Offshore wind</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
         <v>58</v>
       </c>
-      <c r="M15" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="str">
-        <f>J16</f>
+        <f>K16</f>
         <v>MINSOL1</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="str">
-        <f>J7</f>
+        <f>K7</f>
         <v>SOL</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="32">
+        <v>2021</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10" t="str">
-        <f>$H$14&amp;C6&amp;1</f>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="str">
+        <f>$I$14&amp;C6&amp;1</f>
         <v>MINSOL1</v>
       </c>
-      <c r="K16" s="21" t="str">
+      <c r="L16" s="20" t="str">
         <f>"Domestic Supply of "&amp;D6</f>
         <v>Domestic Supply of Solar energy</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="M16" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="N16" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C782BC8-25C1-4965-8240-28B07E75BEE2}">
-  <dimension ref="B1:Q33"/>
+  <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3399,19 +3430,20 @@
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3428,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="str">
         <f>[1]EB1!E2</f>
@@ -3442,478 +3474,512 @@
         <f>[1]EB1!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I5" s="5" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="5" t="str">
+      <c r="M5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="5" t="str">
         <f>C2</f>
         <v>GAS</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="O5" s="5" t="str">
         <f>D2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="M5" s="5" t="str">
+      <c r="P5" s="5" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="12" t="s">
+      <c r="R5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7"/>
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="J8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="M8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="F9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="L9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="M9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="9" t="s">
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2</f>
+        <v>MEuro22/PJ</v>
+      </c>
+      <c r="J10" s="17" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="F10" s="17" t="str">
-        <f>$F$2&amp;"/"&amp;$E$2</f>
-        <v>M€2020/PJ</v>
-      </c>
-      <c r="G10" s="17" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="str">
-        <f>K11</f>
+        <f>N11</f>
         <v>MINGAS1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="str">
-        <f>$K$5</f>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="str">
+        <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="E11" s="26">
-        <v>15000</v>
-      </c>
-      <c r="F11" s="27">
-        <v>200</v>
-      </c>
-      <c r="G11" s="28">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="str">
-        <f>$I$11&amp;$C$2&amp;1</f>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="33">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="10" t="str">
+        <f>$L$11&amp;$C$2&amp;1</f>
         <v>MINGAS1</v>
       </c>
-      <c r="L11" s="21" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
+      <c r="O11" s="20" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(N11,1)</f>
         <v>Domestic Supply of Natural Gas Step 1</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="P11" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="Q11" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H24" s="8"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="str">
-        <f>K30</f>
+        <f>N30</f>
         <v>MINGAS2</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="str">
-        <f>$K$5</f>
+        <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="24">
         <v>20000</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="25">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <f>[1]EB1!$E$5*[1]EB1!E22</f>
         <v>1579.8994000000002</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="str">
-        <f>$I$11&amp;$C$2&amp;2</f>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10" t="str">
+        <f>$L$11&amp;$C$2&amp;2</f>
         <v>MINGAS2</v>
       </c>
-      <c r="L30" s="21" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K30,1)</f>
+      <c r="O30" s="20" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(N30,1)</f>
         <v>Domestic Supply of Natural Gas Step 2</v>
       </c>
-      <c r="M30" s="10" t="str">
+      <c r="P30" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N30" s="10" t="str">
+      <c r="Q30" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="str">
-        <f>K31</f>
+        <f>N31</f>
         <v>MINGAS3</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="str">
-        <f>$K$5</f>
+        <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>0</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="25">
         <v>5.4</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="24">
         <v>0</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="str">
-        <f>$I$11&amp;$C$2&amp;3</f>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10" t="str">
+        <f>$L$11&amp;$C$2&amp;3</f>
         <v>MINGAS3</v>
       </c>
-      <c r="L31" s="21" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K31,1)</f>
+      <c r="O31" s="20" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(N31,1)</f>
         <v>Domestic Supply of Natural Gas Step 3</v>
       </c>
-      <c r="M31" s="10" t="str">
+      <c r="P31" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N31" s="10" t="str">
+      <c r="Q31" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="str">
-        <f>K32</f>
+        <f>N32</f>
         <v>*IMPGAS1</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="str">
-        <f>$K$5</f>
+        <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="25">
         <v>4.5</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="26">
         <f>[1]EB1!E6</f>
         <v>5316.6916000000001</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="str">
-        <f>$I$32&amp;$C$2&amp;1</f>
+      <c r="L32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="str">
+        <f>$L$32&amp;$C$2&amp;1</f>
         <v>*IMPGAS1</v>
       </c>
-      <c r="L32" s="21" t="str">
-        <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K32,1)</f>
+      <c r="O32" s="20" t="str">
+        <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(N32,1)</f>
         <v>Import of Natural Gas Step 1</v>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="P32" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N32" s="10" t="str">
+      <c r="Q32" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="str">
-        <f>K33</f>
+        <f>N33</f>
         <v>*EXPGAS1</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f>$K$5</f>
+        <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="25">
         <v>4.5</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="26">
         <f>-[1]EB1!E7</f>
         <v>1006.5324000000001</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="str">
-        <f>$I$33&amp;$C$2&amp;1</f>
+      <c r="L33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10" t="str">
+        <f>$L$33&amp;$C$2&amp;1</f>
         <v>*EXPGAS1</v>
       </c>
-      <c r="L33" s="21" t="str">
-        <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K33,1)</f>
+      <c r="O33" s="20" t="str">
+        <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(N33,1)</f>
         <v>Export of Natural Gas Step 1</v>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="P33" s="10" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N33" s="10" t="str">
+      <c r="Q33" s="10" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
